--- a/Test Project 2/Assets/Data/Data.xlsx
+++ b/Test Project 2/Assets/Data/Data.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Project\ProjectBS\ProjectBS\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\UnityBasicStudy2\Test Project 2\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5624E0-82EA-45F1-8ED0-E4766F84D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B95E63-991A-46C3-8FB9-797CB15AC9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="840" windowWidth="18075" windowHeight="13845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="3" r:id="rId1"/>
+    <sheet name="Dialogue" sheetId="1" r:id="rId2"/>
+    <sheet name="Character" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,17 +27,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Name_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>ID_I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bbno</t>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharClubName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유우카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모모이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임개발부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미도리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유우카_기본표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유우카_슬픈표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유우카_웃는표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유우카_화난표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유우카_놀란표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Momoi_Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Momoi_Sad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Momoi_Happy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Momoi_Angry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Momoi_Surpised</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요, 선생님. 지금부터 반성회를 시작하죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuuka_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuuka_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuuka_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuuka_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuuka_06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님. 오늘도 전력으로 당신을 보좌하겠어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선~ 생~ 님~ 조금 더 노력해 주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님. 지금 선생님의 행동에 대해 하고 싶은 말은 약 서른네 개 정도입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그중에 하나는 특별한 말이지만…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님. 업무를 시작하기 전에 먼저 앞으로의 목표와 방향성을 준비해 주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59,15 +209,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,12 +231,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -360,30 +543,532 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B342087F-A5B2-41AF-B7DA-3118D0F56A76}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="74" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4">
+        <v>10101</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10101</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10101</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10101</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10101</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10101</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A22C175-0829-4498-8A65-4804CB5557F9}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>10101</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>10102</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>10103</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>10104</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>10105</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>10201</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>10202</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>10203</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>10204</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10205</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10301</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>10302</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>10303</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
